--- a/kvision/ksample/mytable/result/015_7dc01.xlsx
+++ b/kvision/ksample/mytable/result/015_7dc01.xlsx
@@ -35,13 +35,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -50,11 +64,15 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,120 +454,132 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>门诊检验报告单</t>
         </is>
       </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>**血常规（5分类)</t>
         </is>
       </c>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>标本状态：正常 临床诊断：1.慢性扁桃体炎</t>
         </is>
       </c>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>检验项目</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>结果</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>参考范围</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>中性细胞百分率（NEL%)</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>77.1</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>40-75</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>% %</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>淋巴细胞百分率 （LYM%) 单核细胞百分率（MONO%）</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>8.8 7.1</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>20-50 3.0-10.0</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>红细胞计数 （RBC)</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>6.66</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>4.3-5.8</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>送检医生： 检验者： 审核者：</t>
         </is>
       </c>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/kvision/ksample/mytable/result/015_7dc01.xlsx
+++ b/kvision/ksample/mytable/result/015_7dc01.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -57,6 +57,64 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -64,7 +122,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -73,6 +131,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -454,132 +516,132 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>门诊检验报告单</t>
         </is>
       </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
+      <c r="B1" s="5" t="n"/>
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="5" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>**血常规（5分类)</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="5" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>标本状态：正常 临床诊断：1.慢性扁桃体炎</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="5" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>检验项目</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>结果</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>参考范围</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>中性细胞百分率（NEL%)</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>77.1</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>40-75</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>% %</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>淋巴细胞百分率 （LYM%) 单核细胞百分率（MONO%）</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>8.8 7.1</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>20-50 3.0-10.0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>红细胞计数 （RBC)</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>6.66</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>4.3-5.8</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>送检医生： 检验者： 审核者：</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/kvision/ksample/mytable/result/015_7dc01.xlsx
+++ b/kvision/ksample/mytable/result/015_7dc01.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -113,6 +113,64 @@
       </top>
       <bottom style="thick">
         <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
       </bottom>
     </border>
   </borders>
@@ -122,7 +180,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -135,6 +193,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -516,132 +578,132 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>门诊检验报告单</t>
         </is>
       </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
+      <c r="B1" s="7" t="n"/>
+      <c r="C1" s="7" t="n"/>
+      <c r="D1" s="7" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>**血常规（5分类)</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="7" t="n"/>
+      <c r="D2" s="7" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>标本状态：正常 临床诊断：1.慢性扁桃体炎</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="5" t="n"/>
+      <c r="B3" s="7" t="n"/>
+      <c r="C3" s="7" t="n"/>
+      <c r="D3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>检验项目</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>结果</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>参考范围</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>单位</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>中性细胞百分率（NEL%)</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>77.1</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>40-75</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>% %</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>淋巴细胞百分率 （LYM%) 单核细胞百分率（MONO%）</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>8.8 7.1</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>20-50 3.0-10.0</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>红细胞计数 （RBC)</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>6.66</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>4.3-5.8</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>送检医生： 检验者： 审核者：</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
